--- a/templates/registration_template.xlsx
+++ b/templates/registration_template.xlsx
@@ -444,7 +444,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name*</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event ID*</t>
+          <t>Event ID</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>* Required fields</t>
+          <t>Required fields : Name , Event ID</t>
         </is>
       </c>
     </row>

--- a/templates/registration_template.xlsx
+++ b/templates/registration_template.xlsx
@@ -444,7 +444,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Name*</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event ID</t>
+          <t>Event ID*</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Required fields : Name , Event ID</t>
+          <t>* Required fields</t>
         </is>
       </c>
     </row>
